--- a/Documentation/R Microsim Model - State Simulation Parameters.xlsx
+++ b/Documentation/R Microsim Model - State Simulation Parameters.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +484,10 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,63 +514,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C3">
-        <v>0.66</v>
-      </c>
-      <c r="D3">
-        <v>0.6</v>
+        <v>18</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.66</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -581,21 +584,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>8400</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -609,184 +612,184 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>1.01</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>1.01</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>0.25</v>
-      </c>
-      <c r="D12">
-        <v>0.25</v>
+        <v>31</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-      <c r="C13">
-        <v>0.25</v>
-      </c>
-      <c r="D13">
-        <v>0.25</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>0.25</v>
-      </c>
-      <c r="C14">
-        <v>0.25</v>
-      </c>
-      <c r="D14">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="C17">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="D17">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
       <c r="C19">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
       <c r="D19">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,35 +822,35 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>260</v>
@@ -889,13 +892,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>1216</v>
-      </c>
-      <c r="C29">
-        <v>594</v>
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -903,83 +906,83 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>0.25</v>
+      </c>
+      <c r="C30">
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>8400</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>11520</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0.01</v>
+      </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>1216</v>
+      </c>
+      <c r="C35">
+        <v>594</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -987,33 +990,36 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>0.85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>